--- a/2017_b/sd/exam1/RubricaExamen1.xlsx
+++ b/2017_b/sd/exam1/RubricaExamen1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubrica" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">Asignación </t>
   </si>
   <si>
-    <t>Proyecto Final</t>
-  </si>
-  <si>
     <t>Objetivo Terminal</t>
   </si>
   <si>
@@ -164,12 +161,15 @@
   </si>
   <si>
     <t>Identificar los pasos necesarios para el aprovisionamiento de un infraestructura</t>
+  </si>
+  <si>
+    <t>Examen 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -610,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -652,158 +652,158 @@
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -855,55 +855,55 @@
     <row r="1" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9">
         <v>0.15</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -942,7 +942,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
